--- a/data/member_portal/dashboard.xlsx
+++ b/data/member_portal/dashboard.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>case_no</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,6 +93,22 @@
   </si>
   <si>
     <t>Change Password Successful！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my sql1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my sql2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm_demo_demo_ts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 - ASIC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,7 +462,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -503,6 +519,12 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3">
@@ -513,6 +535,12 @@
       </c>
       <c r="C3" t="s">
         <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
